--- a/m6A papers/Rice/6mA-papers-rice-genome.xlsx
+++ b/m6A papers/Rice/6mA-papers-rice-genome.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18135" windowHeight="5670" activeTab="2"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="rice, plant" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="200">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,16 +651,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6mA-Pred</t>
-  </si>
-  <si>
     <t>可讀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Deep6mA</t>
-  </si>
-  <si>
     <t>自己造rcie 12000 dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,13 +752,37 @@
   </si>
   <si>
     <t>[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mAPred-MSFF(2021/8/22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-Pred(2021/1/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep6mA(2021/1/18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRicem6A-CNN(2021/8/14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGF6mARice(2022/1/15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNNRice6m(2019/10/11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2677,14 +2695,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2808,7 +2826,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>150</v>
@@ -3031,18 +3049,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3050,133 +3068,133 @@
         <v>46</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G132" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G134" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/m6A papers/Rice/6mA-papers-rice-genome.xlsx
+++ b/m6A papers/Rice/6mA-papers-rice-genome.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="199">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,10 +659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6mA-RicePred</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,107 +671,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ML(造Lv dataset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDM6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己造rcie 221dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有用Lv 15400 dataset的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mAPred-MSFF(2021/8/22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-Pred(2021/1/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep6mA(2021/1/18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRicem6A-CNN(2021/8/14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGF6mARice(2022/1/15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNNRice6m(2019/10/11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>iDNA6mA-Rice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ML(造Lv dataset)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDM6A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己造rcie 221dataset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有用Lv 15400 dataset的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mAPred-MSFF(2021/8/22)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6mA-Pred(2021/1/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deep6mA(2021/1/18)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iRicem6A-CNN(2021/8/14)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGF6mARice(2022/1/15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNNRice6m(2019/10/11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,15 +1170,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19707</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>560727</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1206,8 +1202,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5394960" y="19240500"/>
-          <a:ext cx="10965180" cy="2667000"/>
+          <a:off x="7094483" y="19897397"/>
+          <a:ext cx="12148382" cy="2758965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2695,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3049,18 +3045,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,122 +3069,122 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G132" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G134" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
